--- a/data/trans_orig/P16A01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52417</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40160</v>
+        <v>38831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68179</v>
+        <v>66460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08973323481493377</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06875023492919001</v>
+        <v>0.06647513811422052</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1167167107568286</v>
+        <v>0.1137731571410512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>53263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41342</v>
+        <v>40517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69678</v>
+        <v>69094</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05774832217837755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0448235519485373</v>
+        <v>0.04392897762133268</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07554526812208606</v>
+        <v>0.07491209566386807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -786,19 +786,19 @@
         <v>105680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85417</v>
+        <v>86630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126442</v>
+        <v>126000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07015059740679942</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05669993092217521</v>
+        <v>0.05750481345188087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08393272777309238</v>
+        <v>0.08363887713668952</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>531724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>515962</v>
+        <v>517681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543981</v>
+        <v>545310</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9102667651850662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8832832892431715</v>
+        <v>0.8862268428589487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.93124976507081</v>
+        <v>0.9335248618857793</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>832</v>
@@ -836,19 +836,19 @@
         <v>869070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>852655</v>
+        <v>853239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>880991</v>
+        <v>881816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9422516778216224</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.924454731877914</v>
+        <v>0.925087904336132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9551764480514627</v>
+        <v>0.9560710223786675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1353</v>
@@ -857,19 +857,19 @@
         <v>1400794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1380032</v>
+        <v>1380474</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1421057</v>
+        <v>1419844</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9298494025932006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.916067272226908</v>
+        <v>0.9163611228633107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9433000690778248</v>
+        <v>0.9424951865481191</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>75300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60822</v>
+        <v>58827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94492</v>
+        <v>92921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06985824095852866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05642639315877095</v>
+        <v>0.05457592832665249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08766322234568134</v>
+        <v>0.08620602612081046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -982,19 +982,19 @@
         <v>75371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60273</v>
+        <v>60180</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95886</v>
+        <v>94867</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07126981050180181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05699415390615994</v>
+        <v>0.05690547732422265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09066891941254891</v>
+        <v>0.08970532528133268</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -1003,19 +1003,19 @@
         <v>150670</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129589</v>
+        <v>127366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177520</v>
+        <v>177698</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07055729782904682</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06068511381533585</v>
+        <v>0.05964425483070616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0831306780245992</v>
+        <v>0.08321423474721065</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1002594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>983402</v>
+        <v>984973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017072</v>
+        <v>1019067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9301417590414713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9123367776543182</v>
+        <v>0.9137939738791896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9435736068412287</v>
+        <v>0.9454240716733475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>958</v>
@@ -1053,19 +1053,19 @@
         <v>982167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961652</v>
+        <v>962671</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997265</v>
+        <v>997358</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9287301894981982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9093310805874512</v>
+        <v>0.9102946747186672</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9430058460938395</v>
+        <v>0.9430945226757773</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1937</v>
@@ -1074,19 +1074,19 @@
         <v>1984762</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1957912</v>
+        <v>1957734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2005843</v>
+        <v>2008066</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9294427021709532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9168693219754014</v>
+        <v>0.9167857652527893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9393148861846641</v>
+        <v>0.9403557451692939</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>65992</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50986</v>
+        <v>50444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82648</v>
+        <v>82497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05889094771763122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04550006518231315</v>
+        <v>0.04501581637471738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07375451527405413</v>
+        <v>0.07362018370245206</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>48852</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36431</v>
+        <v>36140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63997</v>
+        <v>65425</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04915005687106339</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03665317321644775</v>
+        <v>0.03636062879235931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06438736879120149</v>
+        <v>0.0658238362005114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1220,19 +1220,19 @@
         <v>114844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96099</v>
+        <v>96076</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138257</v>
+        <v>140579</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05431218902234394</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0454473712367679</v>
+        <v>0.04543655113657155</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0653847858620052</v>
+        <v>0.0664827062676142</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1054584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1037928</v>
+        <v>1038079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1069590</v>
+        <v>1070132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9411090522823687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9262454847259459</v>
+        <v>0.9263798162975482</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9544999348176869</v>
+        <v>0.9549841836252828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>937</v>
@@ -1270,19 +1270,19 @@
         <v>945088</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>929943</v>
+        <v>928515</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>957509</v>
+        <v>957800</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9508499431289367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9356126312087986</v>
+        <v>0.9341761637994886</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9633468267835523</v>
+        <v>0.9636393712076408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1975</v>
@@ -1291,19 +1291,19 @@
         <v>1999672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1976259</v>
+        <v>1973937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2018417</v>
+        <v>2018440</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9456878109776561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9346152141379949</v>
+        <v>0.9335172937323858</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.954552628763232</v>
+        <v>0.9545634488634285</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>31065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22064</v>
+        <v>22331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42294</v>
+        <v>43436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06946532582054965</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04933862659225656</v>
+        <v>0.0499347299006348</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09457464174740256</v>
+        <v>0.0971295639876046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1416,19 +1416,19 @@
         <v>30172</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20837</v>
+        <v>20636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42723</v>
+        <v>42001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08844121010634436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06107693115997334</v>
+        <v>0.0604880122625532</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1252305701312448</v>
+        <v>0.1231124715490398</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -1437,19 +1437,19 @@
         <v>61237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46980</v>
+        <v>48729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76817</v>
+        <v>79133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07767705096360626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05959172221554061</v>
+        <v>0.0618105268114835</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09743973564387949</v>
+        <v>0.1003774679669502</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>416135</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404906</v>
+        <v>403764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>425136</v>
+        <v>424869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9305346741794503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9054253582525975</v>
+        <v>0.9028704360123955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9506613734077435</v>
+        <v>0.9500652700993651</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>310</v>
@@ -1487,19 +1487,19 @@
         <v>310986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>298435</v>
+        <v>299157</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320321</v>
+        <v>320522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9115587898936557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8747694298687552</v>
+        <v>0.8768875284509601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9389230688400266</v>
+        <v>0.9395119877374467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>714</v>
@@ -1508,19 +1508,19 @@
         <v>727121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711541</v>
+        <v>709225</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741378</v>
+        <v>739629</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9223229490363938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9025602643561206</v>
+        <v>0.8996225320330495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9404082777844597</v>
+        <v>0.9381894731885164</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>224773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196096</v>
+        <v>198147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>251739</v>
+        <v>256535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06959333600021887</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06071431108981686</v>
+        <v>0.06134936980456074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.077942433337929</v>
+        <v>0.07942722839389531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>197</v>
@@ -1633,19 +1633,19 @@
         <v>207658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>180259</v>
+        <v>179534</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235350</v>
+        <v>237446</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06264262328426756</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05437721817977337</v>
+        <v>0.05415867226257118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07099616740837479</v>
+        <v>0.07162828684814858</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>422</v>
@@ -1654,19 +1654,19 @@
         <v>432432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>393397</v>
+        <v>393229</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>476151</v>
+        <v>476274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06607275988858645</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06010848268047736</v>
+        <v>0.06008287082323117</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07275275854529799</v>
+        <v>0.07277163663127528</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3005038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2978072</v>
+        <v>2973276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3033715</v>
+        <v>3031664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9304066639997811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9220575666620706</v>
+        <v>0.9205727716061046</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9392856889101829</v>
+        <v>0.938650630195439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3037</v>
@@ -1704,19 +1704,19 @@
         <v>3107311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3079619</v>
+        <v>3077523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3134710</v>
+        <v>3135435</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9373573767157324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9290038325916252</v>
+        <v>0.9283717131518515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9456227818202266</v>
+        <v>0.9458413277374289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5979</v>
@@ -1725,19 +1725,19 @@
         <v>6112348</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6068629</v>
+        <v>6068506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6151383</v>
+        <v>6151551</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9339272401114136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9272472414547021</v>
+        <v>0.9272283633687245</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9398915173195226</v>
+        <v>0.9399171291767688</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>106204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86715</v>
+        <v>87639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>126704</v>
+        <v>127847</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1021376120718536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08339463631578427</v>
+        <v>0.08428308458869049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1218522776164819</v>
+        <v>0.1229518131549469</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2090,19 +2090,19 @@
         <v>106111</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85368</v>
+        <v>88248</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127069</v>
+        <v>127992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09527622702162918</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07665160937677545</v>
+        <v>0.07923781148298016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1140948535519886</v>
+        <v>0.1149231901890205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>200</v>
@@ -2111,19 +2111,19 @@
         <v>212315</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>185917</v>
+        <v>183296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>241026</v>
+        <v>239498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0985891954124674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0863310023211572</v>
+        <v>0.08511406450573428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1119210801011059</v>
+        <v>0.1112115648650478</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>933613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>913113</v>
+        <v>911970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>953102</v>
+        <v>952178</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8978623879281464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8781477223835181</v>
+        <v>0.8770481868450531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9166053636842157</v>
+        <v>0.9157169154113095</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>926</v>
@@ -2161,19 +2161,19 @@
         <v>1007605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>986647</v>
+        <v>985724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1028348</v>
+        <v>1025468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9047237729783708</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8859051464480112</v>
+        <v>0.8850768098109795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9233483906232243</v>
+        <v>0.9207621885170197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1801</v>
@@ -2182,19 +2182,19 @@
         <v>1941218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1912507</v>
+        <v>1914035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1967616</v>
+        <v>1970237</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9014108045875326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8880789198988942</v>
+        <v>0.8887884351349516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9136689976788428</v>
+        <v>0.9148859354942658</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>99485</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82310</v>
+        <v>82419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123142</v>
+        <v>124345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1020856776816243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08446170080722101</v>
+        <v>0.08457346325351139</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1263601565801527</v>
+        <v>0.1275944933916391</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -2307,19 +2307,19 @@
         <v>78458</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62135</v>
+        <v>62286</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97775</v>
+        <v>97606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07191024251234593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05694988789805634</v>
+        <v>0.05708767968702505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08961494921228855</v>
+        <v>0.08946028196616425</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -2328,19 +2328,19 @@
         <v>177943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154100</v>
+        <v>153301</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>207208</v>
+        <v>205953</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08614684100837354</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07460391560769442</v>
+        <v>0.07421697264391931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1003144585871176</v>
+        <v>0.09970693024569599</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>875044</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>851387</v>
+        <v>850184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>892219</v>
+        <v>892110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8979143223183756</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8736398434198474</v>
+        <v>0.8724055066083614</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9155382991927791</v>
+        <v>0.9154265367464889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>941</v>
@@ -2378,19 +2378,19 @@
         <v>1012594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>993277</v>
+        <v>993446</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1028917</v>
+        <v>1028766</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9280897574876541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9103850507877119</v>
+        <v>0.9105397180338358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9430501121019438</v>
+        <v>0.9429123203129751</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -2399,19 +2399,19 @@
         <v>1887638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1858373</v>
+        <v>1859628</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1911481</v>
+        <v>1912280</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9138531589916264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8996855414128822</v>
+        <v>0.9002930697543037</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9253960843923053</v>
+        <v>0.9257830273560806</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>67762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51113</v>
+        <v>51500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85965</v>
+        <v>85375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07663747611719532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05780796961829086</v>
+        <v>0.05824545873016612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09722491057996457</v>
+        <v>0.0965582048856639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -2524,19 +2524,19 @@
         <v>72500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56701</v>
+        <v>56986</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91387</v>
+        <v>90717</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08296893847825076</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06488824024501608</v>
+        <v>0.06521413774885258</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1045824778718623</v>
+        <v>0.1038155610006765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -2545,19 +2545,19 @@
         <v>140262</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115136</v>
+        <v>118790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166461</v>
+        <v>164511</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0797845508118081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06549217882890968</v>
+        <v>0.06757060700875452</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09468731142280404</v>
+        <v>0.09357809959289695</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>816423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>798220</v>
+        <v>798810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>833072</v>
+        <v>832685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9233625238828047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9027750894200355</v>
+        <v>0.9034417951143366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9421920303817092</v>
+        <v>0.941754541269834</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>751</v>
@@ -2595,19 +2595,19 @@
         <v>801325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>782438</v>
+        <v>783108</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>817124</v>
+        <v>816839</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9170310615217492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8954175221281377</v>
+        <v>0.8961844389993235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.935111759754984</v>
+        <v>0.9347858622511473</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1521</v>
@@ -2616,19 +2616,19 @@
         <v>1617748</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1591549</v>
+        <v>1593499</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1642874</v>
+        <v>1639220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9202154491881919</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.905312688577196</v>
+        <v>0.906421900407103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9345078211710904</v>
+        <v>0.9324293929912455</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>49535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36059</v>
+        <v>36044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67680</v>
+        <v>66831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09847533405910591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07168442165203816</v>
+        <v>0.07165575347372261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1345461569158117</v>
+        <v>0.1328582006250601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -2741,19 +2741,19 @@
         <v>36788</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25746</v>
+        <v>25336</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49910</v>
+        <v>49238</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08159352235618098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05710345972082221</v>
+        <v>0.05619358048704678</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1106971463438359</v>
+        <v>0.1092073022436058</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -2762,19 +2762,19 @@
         <v>86323</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69545</v>
+        <v>68994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107405</v>
+        <v>107052</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09049593903583657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07290616045876049</v>
+        <v>0.07232938796573009</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1125970706214759</v>
+        <v>0.112226476886546</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>453488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435343</v>
+        <v>436192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>466964</v>
+        <v>466979</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9015246659408941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8654538430841883</v>
+        <v>0.8671417993749398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9283155783479619</v>
+        <v>0.9283442465262775</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -2812,19 +2812,19 @@
         <v>414080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>400958</v>
+        <v>401630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425122</v>
+        <v>425532</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.918406477643819</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.889302853656164</v>
+        <v>0.8907926977563944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9428965402791779</v>
+        <v>0.9438064195129533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>793</v>
@@ -2833,19 +2833,19 @@
         <v>867568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>846486</v>
+        <v>846839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>884346</v>
+        <v>884897</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9095040609641635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8874029293785242</v>
+        <v>0.887773523113454</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9270938395412402</v>
+        <v>0.9276706120342699</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>322987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>285575</v>
+        <v>287514</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>356467</v>
+        <v>364779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09495276057159906</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08395429178330914</v>
+        <v>0.08452432758039263</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1047952789277722</v>
+        <v>0.1072387959979063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>279</v>
@@ -2958,19 +2958,19 @@
         <v>293857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>260966</v>
+        <v>257758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330263</v>
+        <v>327759</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08325824007670465</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07393932623745815</v>
+        <v>0.07303053859963343</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09357334454200834</v>
+        <v>0.0928638676690378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>573</v>
@@ -2979,19 +2979,19 @@
         <v>616844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>563753</v>
+        <v>569138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>663266</v>
+        <v>663530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08899759421682805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08133773760657893</v>
+        <v>0.08211468939102073</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09569537147570181</v>
+        <v>0.0957334748894354</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3078567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3045087</v>
+        <v>3036775</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3115979</v>
+        <v>3114040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9050472394284009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8952047210722278</v>
+        <v>0.8927612040020937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.916045708216691</v>
+        <v>0.9154756724196074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2993</v>
@@ -3029,19 +3029,19 @@
         <v>3235603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3199197</v>
+        <v>3201701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3268494</v>
+        <v>3271702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9167417599232953</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9064266554579917</v>
+        <v>0.907136132330962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9260606737625421</v>
+        <v>0.9269694614003665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5885</v>
@@ -3050,19 +3050,19 @@
         <v>6314171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6267749</v>
+        <v>6267485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6367262</v>
+        <v>6361877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9110024057831719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9043046285242982</v>
+        <v>0.9042665251105646</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9186622623934212</v>
+        <v>0.9178853106089793</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>85433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69073</v>
+        <v>70057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103448</v>
+        <v>104032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07573830414647176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06123469448432962</v>
+        <v>0.06210719198636676</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09170910377919334</v>
+        <v>0.09222702595038519</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -3415,19 +3415,19 @@
         <v>115764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96165</v>
+        <v>93550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137057</v>
+        <v>136662</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09190827778987171</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07634766015038258</v>
+        <v>0.07427215384316363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1088130102267707</v>
+        <v>0.108499771975634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -3436,19 +3436,19 @@
         <v>201197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174789</v>
+        <v>174295</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230562</v>
+        <v>230717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08426880453692123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07320829344049851</v>
+        <v>0.07300121780235237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09656802254174227</v>
+        <v>0.09663301740782984</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1042564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1024549</v>
+        <v>1023965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1058924</v>
+        <v>1057940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9242616958535282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9082908962208066</v>
+        <v>0.9077729740496148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9387653055156703</v>
+        <v>0.9378928080136333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1079</v>
@@ -3486,19 +3486,19 @@
         <v>1143797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1122504</v>
+        <v>1122899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1163396</v>
+        <v>1166011</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9080917222101282</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8911869897732287</v>
+        <v>0.8915002280243659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9236523398496174</v>
+        <v>0.9257278461568361</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2064</v>
@@ -3507,19 +3507,19 @@
         <v>2186361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2156996</v>
+        <v>2156841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2212769</v>
+        <v>2213263</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9157311954630788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9034319774582577</v>
+        <v>0.90336698259217</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9267917065595015</v>
+        <v>0.9269987821976476</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>64003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49628</v>
+        <v>51082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83367</v>
+        <v>81220</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07042426137803255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05460656556141839</v>
+        <v>0.05620670190388734</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09173057878221572</v>
+        <v>0.08936819053976638</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -3632,19 +3632,19 @@
         <v>72541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57329</v>
+        <v>56252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90479</v>
+        <v>89865</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07207457268260399</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05695998225739627</v>
+        <v>0.05588973937608323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0898967170697882</v>
+        <v>0.08928658996278588</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -3653,19 +3653,19 @@
         <v>136545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114152</v>
+        <v>113854</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>157662</v>
+        <v>158603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07129148713604438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0595998689809298</v>
+        <v>0.05944441914366747</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08231713439655082</v>
+        <v>0.08280839764357215</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>844822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>825458</v>
+        <v>827605</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>859197</v>
+        <v>857743</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9295757386219674</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9082694212177842</v>
+        <v>0.9106318094602336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9453934344385816</v>
+        <v>0.9437932980961127</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>883</v>
@@ -3703,19 +3703,19 @@
         <v>933934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>915996</v>
+        <v>916610</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>949146</v>
+        <v>950223</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.927925427317396</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9101032829302115</v>
+        <v>0.9107134100372141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9430400177426037</v>
+        <v>0.9441102606239168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1702</v>
@@ -3724,19 +3724,19 @@
         <v>1778755</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1757638</v>
+        <v>1756697</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1801148</v>
+        <v>1801446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9287085128639556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9176828656034491</v>
+        <v>0.9171916023564278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9404001310190702</v>
+        <v>0.9405555808563325</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>77489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62398</v>
+        <v>61343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>95920</v>
+        <v>95293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09406753307330562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07574811111415999</v>
+        <v>0.07446777113541884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1164422721593603</v>
+        <v>0.1156802928741013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3849,19 +3849,19 @@
         <v>63135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49187</v>
+        <v>48526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79963</v>
+        <v>80803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08188084716948579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06379130306681617</v>
+        <v>0.06293420555493837</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1037056931245522</v>
+        <v>0.1047952024103909</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -3870,19 +3870,19 @@
         <v>140624</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116231</v>
+        <v>120408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161768</v>
+        <v>166166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08817554401368437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07288042848775426</v>
+        <v>0.07549974018283696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1014335649497716</v>
+        <v>0.1041914145530661</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>746270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>727839</v>
+        <v>728466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>761361</v>
+        <v>762416</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9059324669266944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8835577278406396</v>
+        <v>0.8843197071258987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.92425188888584</v>
+        <v>0.9255322288645811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>668</v>
@@ -3920,19 +3920,19 @@
         <v>707924</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>691096</v>
+        <v>690256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>721872</v>
+        <v>722533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9181191528305142</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8962943068754479</v>
+        <v>0.8952047975896092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9362086969331839</v>
+        <v>0.9370657944450619</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1381</v>
@@ -3941,19 +3941,19 @@
         <v>1454194</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1433050</v>
+        <v>1428652</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1478587</v>
+        <v>1474410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9118244559863157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8985664350502284</v>
+        <v>0.8958085854469339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9271195715122457</v>
+        <v>0.924500259817163</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>32321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22846</v>
+        <v>22597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45804</v>
+        <v>44915</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06378760595691416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04508841007938668</v>
+        <v>0.04459687331326807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09039628289867578</v>
+        <v>0.08864272467777339</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4066,19 +4066,19 @@
         <v>42789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30565</v>
+        <v>30520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57213</v>
+        <v>57132</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08737932897227992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06241690372451377</v>
+        <v>0.06232460397409163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1168322775101193</v>
+        <v>0.1166676984421903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -4087,19 +4087,19 @@
         <v>75111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58480</v>
+        <v>58927</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92803</v>
+        <v>93871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07538217333966876</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0586918454386112</v>
+        <v>0.05914005741382918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09313864543368232</v>
+        <v>0.09420998936308354</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>474380</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>460897</v>
+        <v>461786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483855</v>
+        <v>484104</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9362123940430859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9096037171013243</v>
+        <v>0.9113572753222267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9549115899206133</v>
+        <v>0.955403126686732</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>417</v>
@@ -4137,19 +4137,19 @@
         <v>446909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432485</v>
+        <v>432566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>459133</v>
+        <v>459178</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.91262067102772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8831677224898807</v>
+        <v>0.8833323015578098</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9375830962754863</v>
+        <v>0.9376753960259083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>858</v>
@@ -4158,19 +4158,19 @@
         <v>921287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>903595</v>
+        <v>902527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>937918</v>
+        <v>937471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9246178266603312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9068613545663177</v>
+        <v>0.9057900106369164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9413081545613888</v>
+        <v>0.9408599425861708</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>259246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>228884</v>
+        <v>228458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291498</v>
+        <v>294309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07698973202052893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06797280966456813</v>
+        <v>0.06784647571646521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08656772026992676</v>
+        <v>0.08740253155758657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>275</v>
@@ -4283,19 +4283,19 @@
         <v>294230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>261217</v>
+        <v>262004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331589</v>
+        <v>328525</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08342700503319345</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0740663909591365</v>
+        <v>0.07428964396493667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09401999956201973</v>
+        <v>0.09315121239383647</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>522</v>
@@ -4304,19 +4304,19 @@
         <v>553476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>510780</v>
+        <v>507667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>599619</v>
+        <v>597730</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08028283900706326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07408977665849928</v>
+        <v>0.07363817345901102</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08697602094994068</v>
+        <v>0.08670196166481167</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3108036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3075784</v>
+        <v>3072973</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3138398</v>
+        <v>3138824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9230102679794711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9134322797300732</v>
+        <v>0.9125974684424134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9320271903354318</v>
+        <v>0.9321535242835347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3047</v>
@@ -4354,19 +4354,19 @@
         <v>3232562</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3195203</v>
+        <v>3198267</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3265575</v>
+        <v>3264788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9165729949668066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9059800004379791</v>
+        <v>0.9068487876061638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.925933609040863</v>
+        <v>0.9257103560350637</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6005</v>
@@ -4375,19 +4375,19 @@
         <v>6340599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6294456</v>
+        <v>6296345</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6383295</v>
+        <v>6386408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9197171609929368</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9130239790500594</v>
+        <v>0.9132980383351892</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9259102233415006</v>
+        <v>0.926361826540989</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>37343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25438</v>
+        <v>26666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52150</v>
+        <v>54646</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07487409942998653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05100541838485191</v>
+        <v>0.05346612732303601</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1045637343501067</v>
+        <v>0.1095690269607605</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -4740,19 +4740,19 @@
         <v>60830</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47726</v>
+        <v>47577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77372</v>
+        <v>77374</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09754960893350349</v>
+        <v>0.09754960893350351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07653558139290345</v>
+        <v>0.0762973126587194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1240771367239957</v>
+        <v>0.1240809391595759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -4761,19 +4761,19 @@
         <v>98173</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80872</v>
+        <v>80647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119455</v>
+        <v>119236</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08747300637324419</v>
+        <v>0.08747300637324421</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07205800906649273</v>
+        <v>0.07185714307229667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1064357686660012</v>
+        <v>0.1062409246577937</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>461396</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446589</v>
+        <v>444093</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>473301</v>
+        <v>472073</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9251259005700135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8954362656498932</v>
+        <v>0.8904309730392396</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.948994581615148</v>
+        <v>0.9465338726769641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>777</v>
@@ -4811,19 +4811,19 @@
         <v>562750</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>546208</v>
+        <v>546206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>575854</v>
+        <v>576003</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9024503910664964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8759228632760042</v>
+        <v>0.8759190608404236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9234644186070965</v>
+        <v>0.9237026873412805</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1197</v>
@@ -4832,19 +4832,19 @@
         <v>1024147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1002865</v>
+        <v>1003084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1041448</v>
+        <v>1041673</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9125269936267559</v>
+        <v>0.9125269936267557</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8935642313339989</v>
+        <v>0.8937590753422062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9279419909335074</v>
+        <v>0.9281428569277035</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>57720</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43983</v>
+        <v>43184</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76828</v>
+        <v>77104</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06011666470340972</v>
+        <v>0.06011666470340973</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04580945180036645</v>
+        <v>0.04497669275983433</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08001759315914518</v>
+        <v>0.08030564186099987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -4957,19 +4957,19 @@
         <v>82410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67271</v>
+        <v>69757</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99267</v>
+        <v>101148</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07389379291915757</v>
+        <v>0.07389379291915758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06031899056288397</v>
+        <v>0.06254855424234314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08900875815662405</v>
+        <v>0.09069555272876445</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -4978,19 +4978,19 @@
         <v>140130</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119544</v>
+        <v>119212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>167429</v>
+        <v>164596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06752006488034945</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05760092565350389</v>
+        <v>0.0574409003176193</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08067355408336659</v>
+        <v>0.07930896337724475</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>902417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>883309</v>
+        <v>883033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>916154</v>
+        <v>916953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9398833352965903</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9199824068408549</v>
+        <v>0.9196943581390001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9541905481996336</v>
+        <v>0.9550233072401656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1487</v>
@@ -5028,19 +5028,19 @@
         <v>1032836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1015979</v>
+        <v>1014098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1047975</v>
+        <v>1045489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9261062070808425</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9109912418433761</v>
+        <v>0.9093044472712357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9396810094371164</v>
+        <v>0.9374514457576569</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2339</v>
@@ -5049,19 +5049,19 @@
         <v>1935253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1907954</v>
+        <v>1910787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1955839</v>
+        <v>1956171</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9324799351196504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9193264459166337</v>
+        <v>0.9206910366227549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9423990743464963</v>
+        <v>0.9425590996823807</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>70183</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54521</v>
+        <v>54012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91684</v>
+        <v>92966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06706616480843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05209985314815301</v>
+        <v>0.05161317937561419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08761154204353268</v>
+        <v>0.08883734510749688</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -5174,19 +5174,19 @@
         <v>71268</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58120</v>
+        <v>56864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87219</v>
+        <v>85291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06804831005006895</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05549408944442551</v>
+        <v>0.05429557504726226</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08327936329351134</v>
+        <v>0.0814383276268017</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -5195,19 +5195,19 @@
         <v>141451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118413</v>
+        <v>120947</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166070</v>
+        <v>168577</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06755743236236512</v>
+        <v>0.06755743236236514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05655443422329094</v>
+        <v>0.05776453920167728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07931560310302471</v>
+        <v>0.08051268102306945</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>976296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>954795</v>
+        <v>953513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>991958</v>
+        <v>992467</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9329338351915699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9123884579564673</v>
+        <v>0.9111626548925031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.947900146851847</v>
+        <v>0.9483868206243856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1409</v>
@@ -5245,19 +5245,19 @@
         <v>976042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>960091</v>
+        <v>962019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>989190</v>
+        <v>990446</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9319516899499309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9167206367064888</v>
+        <v>0.9185616723731981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9445059105555745</v>
+        <v>0.9457044249527377</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2371</v>
@@ -5266,19 +5266,19 @@
         <v>1952339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1927720</v>
+        <v>1925213</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1975377</v>
+        <v>1972843</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9324425676376348</v>
+        <v>0.932442567637635</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9206843968969745</v>
+        <v>0.91948731897693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9434455657767087</v>
+        <v>0.9422354607983228</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>87417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67367</v>
+        <v>66178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111608</v>
+        <v>112329</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08957355209621752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06902835406513834</v>
+        <v>0.0678103544638906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1143612398297203</v>
+        <v>0.115099531892226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -5391,19 +5391,19 @@
         <v>69517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56837</v>
+        <v>56624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84669</v>
+        <v>84666</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07657123026189991</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06260428633005095</v>
+        <v>0.06236985393240384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09326097881222424</v>
+        <v>0.09325756009131168</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -5412,19 +5412,19 @@
         <v>156935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131214</v>
+        <v>132107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>182941</v>
+        <v>183735</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08330724492195804</v>
+        <v>0.08330724492195805</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06965370894273355</v>
+        <v>0.07012748924478139</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09711232023638623</v>
+        <v>0.09753371214324218</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>888512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>864321</v>
+        <v>863600</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>908562</v>
+        <v>909751</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9104264479037826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8856387601702802</v>
+        <v>0.8849004681077743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9309716459348621</v>
+        <v>0.9321896455361094</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1216</v>
@@ -5462,19 +5462,19 @@
         <v>838360</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>823208</v>
+        <v>823211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>851040</v>
+        <v>851253</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9234287697381001</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9067390211877756</v>
+        <v>0.9067424399086884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.937395713669949</v>
+        <v>0.9376301460675961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2088</v>
@@ -5483,19 +5483,19 @@
         <v>1726871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1700865</v>
+        <v>1700071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1752592</v>
+        <v>1751699</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9166927550780419</v>
+        <v>0.9166927550780418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9028876797636133</v>
+        <v>0.9024662878567573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9303462910572663</v>
+        <v>0.9298725107552186</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>252664</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>221867</v>
+        <v>219811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>290307</v>
+        <v>290630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07257771365724863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06373133918315446</v>
+        <v>0.06314083357895911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08339080556349693</v>
+        <v>0.08348345957949881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>413</v>
@@ -5608,19 +5608,19 @@
         <v>284025</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>256052</v>
+        <v>256316</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>316203</v>
+        <v>313132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07688783943927899</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06931528806063519</v>
+        <v>0.0693868329796825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0855987111094671</v>
+        <v>0.08476735282911595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>648</v>
@@ -5629,19 +5629,19 @@
         <v>536688</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>493842</v>
+        <v>492046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>586407</v>
+        <v>578637</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07479666867500005</v>
+        <v>0.07479666867500007</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06882533200187702</v>
+        <v>0.06857504284937081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08172584429446055</v>
+        <v>0.08064288368322084</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3228620</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3190977</v>
+        <v>3190654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3259417</v>
+        <v>3261473</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9274222863427514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9166091944365031</v>
+        <v>0.9165165404205012</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9362686608168456</v>
+        <v>0.9368591664210409</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4889</v>
@@ -5679,19 +5679,19 @@
         <v>3409989</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3377811</v>
+        <v>3380882</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3437962</v>
+        <v>3437698</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9231121605607211</v>
+        <v>0.923112160560721</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9144012888905336</v>
+        <v>0.9152326471708842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9306847119393652</v>
+        <v>0.9306131670203177</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7995</v>
@@ -5700,19 +5700,19 @@
         <v>6638610</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6588891</v>
+        <v>6596661</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6681456</v>
+        <v>6683252</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.925203331325</v>
+        <v>0.9252033313249999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9182741557055395</v>
+        <v>0.9193571163167793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9311746679981227</v>
+        <v>0.9314249571506292</v>
       </c>
     </row>
     <row r="18">
